--- a/docss/trend/spain/E_anemia.xlsx
+++ b/docss/trend/spain/E_anemia.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16425" windowHeight="12195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ej1_Anemias_Comarcas" sheetId="1" r:id="rId1"/>
     <sheet name="Tasa_anual_Ej1_Anemias" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -12812,7 +12812,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B1" sqref="B1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12836,13 +12836,13 @@
         <v>1999</v>
       </c>
       <c r="B2">
-        <v>3.6218736769868601E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="C2">
-        <v>5.3812877931532402E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="D2">
-        <v>2.0243389270158001E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -12850,13 +12850,13 @@
         <v>2000</v>
       </c>
       <c r="B3">
-        <v>3.4342624918917097E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="C3">
-        <v>6.2114030293278201E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="D3">
-        <v>1.0789056199652401E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -12864,13 +12864,13 @@
         <v>2001</v>
       </c>
       <c r="B4">
-        <v>1.59047226559812E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="C4">
-        <v>1.1996340652045301E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D4">
-        <v>2.1170724504197699E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -12878,13 +12878,13 @@
         <v>2002</v>
       </c>
       <c r="B5">
-        <v>2.4905685762819301E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C5">
-        <v>3.0724687547275899E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="D5">
-        <v>2.1734023037356699E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -12892,13 +12892,13 @@
         <v>2003</v>
       </c>
       <c r="B6">
-        <v>4.3346678673125902E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="C6">
-        <v>3.38826141124383E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="D6">
-        <v>5.00794262230599E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -12906,13 +12906,13 @@
         <v>2004</v>
       </c>
       <c r="B7">
-        <v>2.6962593569686898E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="C7">
-        <v>2.2987388567032401E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="D7">
-        <v>2.8671764128661702E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -12920,13 +12920,13 @@
         <v>2005</v>
       </c>
       <c r="B8">
-        <v>1.8097715121761799E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="C8">
-        <v>2.0183256540676001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="D8">
-        <v>1.5477205128769499E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -12934,13 +12934,13 @@
         <v>2006</v>
       </c>
       <c r="B9">
-        <v>2.2578098584894901E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="C9">
-        <v>3.10981224204731E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="D9">
-        <v>1.9370666022110801E-2</v>
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -12948,13 +12948,13 @@
         <v>2007</v>
       </c>
       <c r="B10">
-        <v>2.4751983121135999E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C10">
-        <v>3.6136015259708602E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="D10">
-        <v>1.5612484335203E-2</v>
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -12962,13 +12962,13 @@
         <v>2008</v>
       </c>
       <c r="B11">
-        <v>3.8861750166845198E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="C11">
-        <v>4.0845808063848799E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="D11">
-        <v>3.5093037920732498E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -12976,13 +12976,13 @@
         <v>2009</v>
       </c>
       <c r="B12">
-        <v>2.6504581661526801E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="C12">
-        <v>3.9257547857125201E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="D12">
-        <v>1.6448077341697401E-2</v>
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -12990,13 +12990,13 @@
         <v>2010</v>
       </c>
       <c r="B13">
-        <v>3.1434309122079902E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="C13">
-        <v>3.7234002907224201E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="D13">
-        <v>2.85783825970608E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -13004,13 +13004,13 @@
         <v>2011</v>
       </c>
       <c r="B14">
-        <v>3.52039625537241E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="C14">
-        <v>3.03534988312151E-2</v>
+        <v>0.03</v>
       </c>
       <c r="D14">
-        <v>4.0579140647744399E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -13018,13 +13018,13 @@
         <v>2012</v>
       </c>
       <c r="B15">
-        <v>4.52482043181896E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="C15">
-        <v>5.0044989983504803E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D15">
-        <v>4.1418001129526101E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -13032,13 +13032,13 @@
         <v>2013</v>
       </c>
       <c r="B16">
-        <v>3.0081863106175201E-2</v>
+        <v>0.03</v>
       </c>
       <c r="C16">
-        <v>2.01280039211525E-2</v>
+        <v>0.02</v>
       </c>
       <c r="D16">
-        <v>3.8035360668528397E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
     </row>
   </sheetData>
